--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.568356333333334</v>
+        <v>1.805635333333334</v>
       </c>
       <c r="H2">
-        <v>28.705069</v>
+        <v>5.416906000000001</v>
       </c>
       <c r="I2">
-        <v>0.09973288675158326</v>
+        <v>0.01900969238460649</v>
       </c>
       <c r="J2">
-        <v>0.09973288675158329</v>
+        <v>0.01900969238460649</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="N2">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="O2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="P2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="Q2">
-        <v>24.48371750012056</v>
+        <v>5.567814982375555</v>
       </c>
       <c r="R2">
-        <v>220.353457501085</v>
+        <v>50.11033484138</v>
       </c>
       <c r="S2">
-        <v>0.02150967866118896</v>
+        <v>0.004319970394194007</v>
       </c>
       <c r="T2">
-        <v>0.02150967866118896</v>
+        <v>0.004319970394194007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.568356333333334</v>
+        <v>1.805635333333334</v>
       </c>
       <c r="H3">
-        <v>28.705069</v>
+        <v>5.416906000000001</v>
       </c>
       <c r="I3">
-        <v>0.09973288675158326</v>
+        <v>0.01900969238460649</v>
       </c>
       <c r="J3">
-        <v>0.09973288675158329</v>
+        <v>0.01900969238460649</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N3">
         <v>19.361954</v>
       </c>
       <c r="O3">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="P3">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="Q3">
-        <v>61.75402506053622</v>
+        <v>11.65354275492489</v>
       </c>
       <c r="R3">
-        <v>555.7862255448259</v>
+        <v>104.881884794324</v>
       </c>
       <c r="S3">
-        <v>0.05425275941370436</v>
+        <v>0.00904178027612375</v>
       </c>
       <c r="T3">
-        <v>0.05425275941370439</v>
+        <v>0.009041780276123748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.568356333333334</v>
+        <v>1.805635333333334</v>
       </c>
       <c r="H4">
-        <v>28.705069</v>
+        <v>5.416906000000001</v>
       </c>
       <c r="I4">
-        <v>0.09973288675158326</v>
+        <v>0.01900969238460649</v>
       </c>
       <c r="J4">
-        <v>0.09973288675158329</v>
+        <v>0.01900969238460649</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="N4">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="O4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="P4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="Q4">
-        <v>27.28472623861945</v>
+        <v>7.279377316720669</v>
       </c>
       <c r="R4">
-        <v>245.562536147575</v>
+        <v>65.51439585048603</v>
       </c>
       <c r="S4">
-        <v>0.02397044867668994</v>
+        <v>0.005647941714288735</v>
       </c>
       <c r="T4">
-        <v>0.02397044867668995</v>
+        <v>0.005647941714288735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>227.836517</v>
       </c>
       <c r="I5">
-        <v>0.7915951551217723</v>
+        <v>0.7995527524661065</v>
       </c>
       <c r="J5">
-        <v>0.7915951551217724</v>
+        <v>0.7995527524661064</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="N5">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="O5">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="P5">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="Q5">
-        <v>194.3310053858228</v>
+        <v>234.1837892119344</v>
       </c>
       <c r="R5">
-        <v>1748.979048472405</v>
+        <v>2107.65410290741</v>
       </c>
       <c r="S5">
-        <v>0.1707256048732896</v>
+        <v>0.1816991116619486</v>
       </c>
       <c r="T5">
-        <v>0.1707256048732897</v>
+        <v>0.1816991116619486</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>227.836517</v>
       </c>
       <c r="I6">
-        <v>0.7915951551217723</v>
+        <v>0.7995527524661065</v>
       </c>
       <c r="J6">
-        <v>0.7915951551217724</v>
+        <v>0.7995527524661064</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N6">
         <v>19.361954</v>
       </c>
       <c r="O6">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="P6">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="Q6">
-        <v>490.1511290749131</v>
+        <v>490.1511290749132</v>
       </c>
       <c r="R6">
         <v>4411.360161674218</v>
       </c>
       <c r="S6">
-        <v>0.4306124379097421</v>
+        <v>0.3802996997901262</v>
       </c>
       <c r="T6">
-        <v>0.4306124379097423</v>
+        <v>0.3802996997901261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>227.836517</v>
       </c>
       <c r="I7">
-        <v>0.7915951551217723</v>
+        <v>0.7995527524661065</v>
       </c>
       <c r="J7">
-        <v>0.7915951551217724</v>
+        <v>0.7995527524661064</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="N7">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="O7">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="P7">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="Q7">
-        <v>216.5630395629972</v>
+        <v>306.1725593485364</v>
       </c>
       <c r="R7">
-        <v>1949.067356066975</v>
+        <v>2755.553034136828</v>
       </c>
       <c r="S7">
-        <v>0.1902571123387404</v>
+        <v>0.2375539410140317</v>
       </c>
       <c r="T7">
-        <v>0.1902571123387405</v>
+        <v>0.2375539410140317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.42596933333333</v>
+        <v>17.23384333333334</v>
       </c>
       <c r="H8">
-        <v>31.277908</v>
+        <v>51.70153000000001</v>
       </c>
       <c r="I8">
-        <v>0.1086719581266445</v>
+        <v>0.1814375551492871</v>
       </c>
       <c r="J8">
-        <v>0.1086719581266445</v>
+        <v>0.1814375551492871</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="N8">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="O8">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="P8">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="Q8">
-        <v>26.67819622613555</v>
+        <v>53.14187717965556</v>
       </c>
       <c r="R8">
-        <v>240.10376603522</v>
+        <v>478.2768946169</v>
       </c>
       <c r="S8">
-        <v>0.02343759390629687</v>
+        <v>0.04123185429736703</v>
       </c>
       <c r="T8">
-        <v>0.02343759390629688</v>
+        <v>0.04123185429736703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.42596933333333</v>
+        <v>17.23384333333334</v>
       </c>
       <c r="H9">
-        <v>31.277908</v>
+        <v>51.70153000000001</v>
       </c>
       <c r="I9">
-        <v>0.1086719581266445</v>
+        <v>0.1814375551492871</v>
       </c>
       <c r="J9">
-        <v>0.1086719581266445</v>
+        <v>0.1814375551492871</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N9">
         <v>19.361954</v>
       </c>
       <c r="O9">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="P9">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="Q9">
-        <v>67.28904621247021</v>
+        <v>111.2269606210689</v>
       </c>
       <c r="R9">
-        <v>605.6014159122318</v>
+        <v>1001.04264558962</v>
       </c>
       <c r="S9">
-        <v>0.05911544116782923</v>
+        <v>0.08629905599237282</v>
       </c>
       <c r="T9">
-        <v>0.05911544116782926</v>
+        <v>0.08629905599237281</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.42596933333333</v>
+        <v>17.23384333333334</v>
       </c>
       <c r="H10">
-        <v>31.277908</v>
+        <v>51.70153000000001</v>
       </c>
       <c r="I10">
-        <v>0.1086719581266445</v>
+        <v>0.1814375551492871</v>
       </c>
       <c r="J10">
-        <v>0.1086719581266445</v>
+        <v>0.1814375551492871</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="N10">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="O10">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="P10">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="Q10">
-        <v>29.73025973554444</v>
+        <v>69.47784301993669</v>
       </c>
       <c r="R10">
-        <v>267.5723376198999</v>
+        <v>625.3005871794302</v>
       </c>
       <c r="S10">
-        <v>0.02611892305251834</v>
+        <v>0.05390664485954721</v>
       </c>
       <c r="T10">
-        <v>0.02611892305251835</v>
+        <v>0.05390664485954721</v>
       </c>
     </row>
   </sheetData>
